--- a/Data/SalesTrend/SalesTrend_CCX.xlsx
+++ b/Data/SalesTrend/SalesTrend_CCX.xlsx
@@ -579,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>96.75</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C2">
-        <v>104.28</v>
+        <v>107.4</v>
       </c>
       <c r="D2">
-        <v>84.05</v>
+        <v>87.72</v>
       </c>
       <c r="E2">
-        <v>30.46</v>
+        <v>30.95</v>
       </c>
       <c r="F2">
-        <v>82.81999999999999</v>
+        <v>85.14</v>
       </c>
       <c r="G2">
-        <v>75.33</v>
+        <v>77.58</v>
       </c>
       <c r="H2">
-        <v>92.01000000000001</v>
+        <v>93.05</v>
       </c>
       <c r="I2">
-        <v>44.23</v>
+        <v>45.81</v>
       </c>
       <c r="J2">
-        <v>105.5</v>
+        <v>108.47</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>98.05</v>
+        <v>103.19</v>
       </c>
       <c r="C3">
-        <v>101.94</v>
+        <v>105.1</v>
       </c>
       <c r="D3">
-        <v>86.23999999999999</v>
+        <v>91.76000000000001</v>
       </c>
       <c r="E3">
-        <v>29.61</v>
+        <v>28.96</v>
       </c>
       <c r="F3">
-        <v>66.25</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G3">
-        <v>72.56999999999999</v>
+        <v>77.78</v>
       </c>
       <c r="H3">
-        <v>85.97</v>
+        <v>87.31</v>
       </c>
       <c r="I3">
-        <v>45.49</v>
+        <v>45.84</v>
       </c>
       <c r="J3">
-        <v>125.67</v>
+        <v>130.88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,31 +643,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>104.66</v>
+        <v>105.61</v>
       </c>
       <c r="C4">
-        <v>164.34</v>
+        <v>166.51</v>
       </c>
       <c r="D4">
-        <v>104.37</v>
+        <v>106.89</v>
       </c>
       <c r="E4">
-        <v>111.68</v>
+        <v>107.03</v>
       </c>
       <c r="F4">
-        <v>39.75</v>
+        <v>38.1</v>
       </c>
       <c r="G4">
-        <v>82.94</v>
+        <v>82.05</v>
       </c>
       <c r="H4">
-        <v>102.83</v>
+        <v>104.88</v>
       </c>
       <c r="I4">
-        <v>52.5</v>
+        <v>51.1</v>
       </c>
       <c r="J4">
-        <v>160.87</v>
+        <v>156.25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -675,31 +675,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>100.02</v>
+        <v>144.5</v>
       </c>
       <c r="C5">
-        <v>184.48</v>
+        <v>176.8</v>
       </c>
       <c r="D5">
-        <v>28.51</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="E5">
-        <v>12.84</v>
+        <v>12.31</v>
       </c>
       <c r="F5">
-        <v>139.13</v>
+        <v>133.33</v>
       </c>
       <c r="G5">
-        <v>51.01</v>
+        <v>48.89</v>
       </c>
       <c r="H5">
-        <v>59.73</v>
+        <v>57.24</v>
       </c>
       <c r="I5">
-        <v>26.33</v>
+        <v>27.18</v>
       </c>
       <c r="J5">
-        <v>115.94</v>
+        <v>144.44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -707,28 +707,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>104.9</v>
+        <v>108.65</v>
       </c>
       <c r="C6">
-        <v>99.56999999999999</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="D6">
-        <v>92.26000000000001</v>
+        <v>88.41</v>
       </c>
       <c r="E6">
-        <v>10.09</v>
+        <v>9.67</v>
       </c>
       <c r="F6">
-        <v>99.38</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G6">
-        <v>104.85</v>
+        <v>112.08</v>
       </c>
       <c r="H6">
-        <v>104.78</v>
+        <v>103.56</v>
       </c>
       <c r="I6">
-        <v>68.97</v>
+        <v>67.64</v>
       </c>
       <c r="J6">
         <v>152.38</v>
@@ -739,31 +739,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>117.83</v>
+        <v>139.15</v>
       </c>
       <c r="C7">
-        <v>71.89</v>
+        <v>91.55</v>
       </c>
       <c r="D7">
-        <v>87.78</v>
+        <v>104.41</v>
       </c>
       <c r="E7">
-        <v>13.17</v>
+        <v>15.14</v>
       </c>
       <c r="F7">
-        <v>99.38</v>
+        <v>114.29</v>
       </c>
       <c r="G7">
-        <v>61.84</v>
+        <v>88.89</v>
       </c>
       <c r="H7">
-        <v>70.41</v>
+        <v>75.86</v>
       </c>
       <c r="I7">
-        <v>73.34</v>
+        <v>79.97</v>
       </c>
       <c r="J7">
-        <v>110.08</v>
+        <v>128.94</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -771,31 +771,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>77.61</v>
+        <v>74.88</v>
       </c>
       <c r="C8">
-        <v>81.43000000000001</v>
+        <v>78.03</v>
       </c>
       <c r="D8">
-        <v>48.26</v>
+        <v>51.25</v>
       </c>
       <c r="E8">
-        <v>10.18</v>
+        <v>9.76</v>
       </c>
       <c r="F8">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G8">
-        <v>53.75</v>
+        <v>54.55</v>
       </c>
       <c r="H8">
-        <v>86.73</v>
+        <v>85.03</v>
       </c>
       <c r="I8">
-        <v>24.97</v>
+        <v>26.2</v>
       </c>
       <c r="J8">
-        <v>90.65000000000001</v>
+        <v>86.87</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -803,31 +803,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>108.49</v>
+        <v>103.97</v>
       </c>
       <c r="C9">
-        <v>114.87</v>
+        <v>111.42</v>
       </c>
       <c r="D9">
-        <v>144.17</v>
+        <v>138.16</v>
       </c>
       <c r="E9">
-        <v>32.18</v>
+        <v>30.84</v>
       </c>
       <c r="F9">
-        <v>39.75</v>
+        <v>57.14</v>
       </c>
       <c r="G9">
-        <v>71.11</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="H9">
-        <v>96.5</v>
+        <v>94.69</v>
       </c>
       <c r="I9">
-        <v>21.31</v>
+        <v>20.42</v>
       </c>
       <c r="J9">
-        <v>255.7</v>
+        <v>248.65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -835,31 +835,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>75.61</v>
+        <v>81.48</v>
       </c>
       <c r="C10">
-        <v>67.93000000000001</v>
+        <v>70.52</v>
       </c>
       <c r="D10">
-        <v>70.3</v>
+        <v>75.81</v>
       </c>
       <c r="E10">
-        <v>55.99</v>
+        <v>53.66</v>
       </c>
       <c r="F10">
-        <v>27.83</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>53.51</v>
+        <v>58.12</v>
       </c>
       <c r="H10">
-        <v>70.34999999999999</v>
+        <v>74.38</v>
       </c>
       <c r="I10">
-        <v>52.14</v>
+        <v>51.83</v>
       </c>
       <c r="J10">
-        <v>77.14</v>
+        <v>87.13</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -867,31 +867,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>102.03</v>
+        <v>102.25</v>
       </c>
       <c r="C11">
-        <v>98.54000000000001</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>76.76000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E11">
-        <v>42.34</v>
+        <v>41.89</v>
       </c>
       <c r="F11">
-        <v>71.72</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="G11">
-        <v>58.33</v>
+        <v>59.21</v>
       </c>
       <c r="H11">
-        <v>89.31999999999999</v>
+        <v>89.33</v>
       </c>
       <c r="I11">
-        <v>30.34</v>
+        <v>31.86</v>
       </c>
       <c r="J11">
-        <v>86.54000000000001</v>
+        <v>86.65000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,31 +899,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>54.72</v>
+        <v>58.41</v>
       </c>
       <c r="C12">
-        <v>44.34</v>
+        <v>43.66</v>
       </c>
       <c r="D12">
-        <v>36.77</v>
+        <v>35.24</v>
       </c>
       <c r="E12">
-        <v>71.26000000000001</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="F12">
-        <v>97.39</v>
+        <v>93.33</v>
       </c>
       <c r="G12">
-        <v>82.45</v>
+        <v>93.83</v>
       </c>
       <c r="H12">
-        <v>68.40000000000001</v>
+        <v>67.14</v>
       </c>
       <c r="I12">
-        <v>13.3</v>
+        <v>18.78</v>
       </c>
       <c r="J12">
-        <v>73.43000000000001</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,31 +931,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>88.54000000000001</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="C13">
-        <v>93.97</v>
+        <v>91.79000000000001</v>
       </c>
       <c r="D13">
-        <v>42.27</v>
+        <v>44.85</v>
       </c>
       <c r="E13">
-        <v>23.75</v>
+        <v>22.76</v>
       </c>
       <c r="F13">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G13">
-        <v>20.53</v>
+        <v>19.67</v>
       </c>
       <c r="H13">
-        <v>88.36</v>
+        <v>85.39</v>
       </c>
       <c r="I13">
-        <v>31.22</v>
+        <v>31.23</v>
       </c>
       <c r="J13">
-        <v>72.88</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -963,31 +963,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>143.46</v>
+        <v>141.27</v>
       </c>
       <c r="C14">
-        <v>132.32</v>
+        <v>131.16</v>
       </c>
       <c r="D14">
-        <v>71.47</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="E14">
-        <v>112.63</v>
+        <v>117.91</v>
       </c>
       <c r="F14">
-        <v>90.73999999999999</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="G14">
-        <v>56.6</v>
+        <v>54.24</v>
       </c>
       <c r="H14">
-        <v>105.37</v>
+        <v>105.04</v>
       </c>
       <c r="I14">
-        <v>30.39</v>
+        <v>33.07</v>
       </c>
       <c r="J14">
-        <v>99.56999999999999</v>
+        <v>99.34999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -995,31 +995,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>106.14</v>
+        <v>109.52</v>
       </c>
       <c r="C15">
-        <v>124.74</v>
+        <v>134.94</v>
       </c>
       <c r="D15">
-        <v>82.31</v>
+        <v>89.56</v>
       </c>
       <c r="E15">
-        <v>33.09</v>
+        <v>31.71</v>
       </c>
       <c r="F15">
-        <v>85.62</v>
+        <v>82.05</v>
       </c>
       <c r="G15">
-        <v>55.65</v>
+        <v>58.67</v>
       </c>
       <c r="H15">
-        <v>80.84999999999999</v>
+        <v>79.64</v>
       </c>
       <c r="I15">
-        <v>26.22</v>
+        <v>29.69</v>
       </c>
       <c r="J15">
-        <v>98.90000000000001</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1027,31 +1027,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>120.67</v>
+        <v>118.54</v>
       </c>
       <c r="C16">
-        <v>80.17</v>
+        <v>77.5</v>
       </c>
       <c r="D16">
-        <v>101.8</v>
+        <v>97.56</v>
       </c>
       <c r="E16">
-        <v>10.18</v>
+        <v>9.76</v>
       </c>
       <c r="F16">
-        <v>41.74</v>
+        <v>66.67</v>
       </c>
       <c r="G16">
-        <v>96.62</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>84.84999999999999</v>
+        <v>86.89</v>
       </c>
       <c r="I16">
-        <v>28.49</v>
+        <v>27.3</v>
       </c>
       <c r="J16">
-        <v>100.39</v>
+        <v>97.89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1059,31 +1059,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>115.73</v>
+        <v>119.59</v>
       </c>
       <c r="C17">
-        <v>136.81</v>
+        <v>147.11</v>
       </c>
       <c r="D17">
-        <v>136.44</v>
+        <v>147.54</v>
       </c>
       <c r="E17">
-        <v>21.77</v>
+        <v>20.86</v>
       </c>
       <c r="F17">
-        <v>53</v>
+        <v>57.14</v>
       </c>
       <c r="G17">
-        <v>71.18000000000001</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="H17">
-        <v>103.86</v>
+        <v>108.16</v>
       </c>
       <c r="I17">
-        <v>61.9</v>
+        <v>62.97</v>
       </c>
       <c r="J17">
-        <v>99.38</v>
+        <v>107.36</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1091,31 +1091,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>60.97</v>
+        <v>58.43</v>
       </c>
       <c r="C18">
+        <v>50.05</v>
+      </c>
+      <c r="D18">
+        <v>57.71</v>
+      </c>
+      <c r="E18">
+        <v>27.64</v>
+      </c>
+      <c r="F18">
+        <v>53.33</v>
+      </c>
+      <c r="G18">
+        <v>55.07</v>
+      </c>
+      <c r="H18">
+        <v>78.18000000000001</v>
+      </c>
+      <c r="I18">
+        <v>29.74</v>
+      </c>
+      <c r="J18">
         <v>52.23</v>
-      </c>
-      <c r="D18">
-        <v>60.22</v>
-      </c>
-      <c r="E18">
-        <v>28.84</v>
-      </c>
-      <c r="F18">
-        <v>55.65</v>
-      </c>
-      <c r="G18">
-        <v>57.47</v>
-      </c>
-      <c r="H18">
-        <v>79.47</v>
-      </c>
-      <c r="I18">
-        <v>30.07</v>
-      </c>
-      <c r="J18">
-        <v>54.5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1123,31 +1123,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>92.06999999999999</v>
+        <v>93.81</v>
       </c>
       <c r="C19">
-        <v>106.91</v>
+        <v>111.56</v>
       </c>
       <c r="D19">
-        <v>80.58</v>
+        <v>86.09</v>
       </c>
       <c r="E19">
-        <v>32.39</v>
+        <v>32.06</v>
       </c>
       <c r="F19">
-        <v>128.26</v>
+        <v>129.17</v>
       </c>
       <c r="G19">
-        <v>78.2</v>
+        <v>81.05</v>
       </c>
       <c r="H19">
-        <v>90.81</v>
+        <v>93.64</v>
       </c>
       <c r="I19">
-        <v>38.74</v>
+        <v>40.84</v>
       </c>
       <c r="J19">
-        <v>128.84</v>
+        <v>132.39</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1155,31 +1155,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>100.88</v>
+        <v>104.41</v>
       </c>
       <c r="C20">
-        <v>114.53</v>
+        <v>119.11</v>
       </c>
       <c r="D20">
-        <v>65.40000000000001</v>
+        <v>73.97</v>
       </c>
       <c r="E20">
-        <v>16.09</v>
+        <v>15.42</v>
       </c>
       <c r="F20">
-        <v>15.46</v>
+        <v>29.63</v>
       </c>
       <c r="G20">
-        <v>89.04000000000001</v>
+        <v>85.33</v>
       </c>
       <c r="H20">
-        <v>96.38</v>
+        <v>105.09</v>
       </c>
       <c r="I20">
-        <v>30.11</v>
+        <v>38.95</v>
       </c>
       <c r="J20">
-        <v>115.5</v>
+        <v>118.24</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1187,31 +1187,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>78.09</v>
+        <v>78.83</v>
       </c>
       <c r="C21">
-        <v>69.56</v>
+        <v>69.87</v>
       </c>
       <c r="D21">
-        <v>69.56999999999999</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="E21">
-        <v>15.27</v>
+        <v>14.63</v>
       </c>
       <c r="F21">
-        <v>129.19</v>
+        <v>123.81</v>
       </c>
       <c r="G21">
-        <v>48.16</v>
+        <v>61.54</v>
       </c>
       <c r="H21">
-        <v>84.2</v>
+        <v>80.69</v>
       </c>
       <c r="I21">
-        <v>17.07</v>
+        <v>19.83</v>
       </c>
       <c r="J21">
-        <v>103.23</v>
+        <v>98.92</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1219,31 +1219,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>127.92</v>
+        <v>135.5</v>
       </c>
       <c r="C22">
-        <v>115.76</v>
+        <v>124.27</v>
       </c>
       <c r="D22">
-        <v>86.13</v>
+        <v>96.05</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.38</v>
+        <v>44.44</v>
       </c>
       <c r="G22">
-        <v>94.61</v>
+        <v>112</v>
       </c>
       <c r="H22">
-        <v>71.8</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="I22">
-        <v>36.56</v>
+        <v>36.29</v>
       </c>
       <c r="J22">
-        <v>174.72</v>
+        <v>192.25</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1251,31 +1251,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>75.02</v>
+        <v>75.03</v>
       </c>
       <c r="C23">
-        <v>127.82</v>
+        <v>130.08</v>
       </c>
       <c r="D23">
-        <v>76.48999999999999</v>
+        <v>80.62</v>
       </c>
       <c r="E23">
-        <v>24.6</v>
+        <v>23.58</v>
       </c>
       <c r="F23">
-        <v>90.03</v>
+        <v>101.96</v>
       </c>
       <c r="G23">
-        <v>106.67</v>
+        <v>102.22</v>
       </c>
       <c r="H23">
-        <v>103.56</v>
+        <v>110.03</v>
       </c>
       <c r="I23">
-        <v>38.62</v>
+        <v>42.03</v>
       </c>
       <c r="J23">
-        <v>107.2</v>
+        <v>109.29</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1283,31 +1283,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>88.83</v>
+        <v>88.42</v>
       </c>
       <c r="C24">
-        <v>97.68000000000001</v>
+        <v>102.44</v>
       </c>
       <c r="D24">
-        <v>92.17</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="E24">
-        <v>100.95</v>
+        <v>101.63</v>
       </c>
       <c r="F24">
-        <v>287.54</v>
+        <v>275.56</v>
       </c>
       <c r="G24">
-        <v>62.16</v>
+        <v>59.57</v>
       </c>
       <c r="H24">
-        <v>96.97</v>
+        <v>94.33</v>
       </c>
       <c r="I24">
-        <v>66.06999999999999</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="J24">
-        <v>137.68</v>
+        <v>138.89</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1315,31 +1315,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>99.62</v>
+        <v>99.55</v>
       </c>
       <c r="C25">
-        <v>101.67</v>
+        <v>102.82</v>
       </c>
       <c r="D25">
-        <v>94.76000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E25">
-        <v>25.86</v>
+        <v>30.22</v>
       </c>
       <c r="F25">
-        <v>119.6</v>
+        <v>121.64</v>
       </c>
       <c r="G25">
-        <v>103.57</v>
+        <v>104.04</v>
       </c>
       <c r="H25">
-        <v>99.48999999999999</v>
+        <v>98.55</v>
       </c>
       <c r="I25">
-        <v>44.89</v>
+        <v>44.28</v>
       </c>
       <c r="J25">
-        <v>109.36</v>
+        <v>108.01</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1347,31 +1347,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>109.34</v>
+        <v>107.37</v>
       </c>
       <c r="C26">
-        <v>86.98</v>
+        <v>84.94</v>
       </c>
       <c r="D26">
-        <v>139.5</v>
+        <v>142.46</v>
       </c>
       <c r="E26">
-        <v>7.46</v>
+        <v>7.15</v>
       </c>
       <c r="F26">
-        <v>61.84</v>
+        <v>59.26</v>
       </c>
       <c r="G26">
-        <v>111.3</v>
+        <v>106.67</v>
       </c>
       <c r="H26">
-        <v>118.66</v>
+        <v>115.31</v>
       </c>
       <c r="I26">
-        <v>39.77</v>
+        <v>39.2</v>
       </c>
       <c r="J26">
-        <v>135.5</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1379,31 +1379,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>110.48</v>
+        <v>105.87</v>
       </c>
       <c r="C27">
-        <v>135.23</v>
+        <v>129.6</v>
       </c>
       <c r="D27">
-        <v>88.52</v>
+        <v>84.83</v>
       </c>
       <c r="E27">
-        <v>64.36</v>
+        <v>61.68</v>
       </c>
       <c r="F27">
-        <v>170.05</v>
+        <v>162.96</v>
       </c>
       <c r="G27">
-        <v>208.7</v>
+        <v>200</v>
       </c>
       <c r="H27">
-        <v>120.16</v>
+        <v>115.15</v>
       </c>
       <c r="I27">
-        <v>42.42</v>
+        <v>40.65</v>
       </c>
       <c r="J27">
-        <v>150.72</v>
+        <v>144.44</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1411,31 +1411,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>81.62</v>
+        <v>78.22</v>
       </c>
       <c r="C28">
-        <v>61.73</v>
+        <v>59.15</v>
       </c>
       <c r="D28">
-        <v>64.39</v>
+        <v>61.71</v>
       </c>
       <c r="E28">
-        <v>5.68</v>
+        <v>5.44</v>
       </c>
       <c r="F28">
-        <v>30.92</v>
+        <v>29.63</v>
       </c>
       <c r="G28">
-        <v>95.95</v>
+        <v>91.95</v>
       </c>
       <c r="H28">
-        <v>65.90000000000001</v>
+        <v>63.15</v>
       </c>
       <c r="I28">
-        <v>59.38</v>
+        <v>56.9</v>
       </c>
       <c r="J28">
-        <v>89.36</v>
+        <v>85.64</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1443,31 +1443,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>115.9</v>
+        <v>119.9</v>
       </c>
       <c r="C29">
-        <v>140.74</v>
+        <v>151.28</v>
       </c>
       <c r="D29">
-        <v>110.75</v>
+        <v>106.13</v>
       </c>
       <c r="E29">
-        <v>85.18000000000001</v>
+        <v>122.45</v>
       </c>
       <c r="F29">
-        <v>123.67</v>
+        <v>118.52</v>
       </c>
       <c r="G29">
-        <v>121.37</v>
+        <v>121.99</v>
       </c>
       <c r="H29">
-        <v>119.28</v>
+        <v>122.96</v>
       </c>
       <c r="I29">
-        <v>37.97</v>
+        <v>40.99</v>
       </c>
       <c r="J29">
-        <v>93.91</v>
+        <v>98.33</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1475,31 +1475,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>106.87</v>
+        <v>107.9</v>
       </c>
       <c r="C30">
-        <v>117</v>
+        <v>128.03</v>
       </c>
       <c r="D30">
-        <v>103.77</v>
+        <v>105.42</v>
       </c>
       <c r="E30">
-        <v>10.18</v>
+        <v>9.76</v>
       </c>
       <c r="F30">
-        <v>278.26</v>
+        <v>293.33</v>
       </c>
       <c r="G30">
-        <v>74.01000000000001</v>
+        <v>85.11</v>
       </c>
       <c r="H30">
-        <v>98.18000000000001</v>
+        <v>98.28</v>
       </c>
       <c r="I30">
-        <v>54.94</v>
+        <v>52.65</v>
       </c>
       <c r="J30">
-        <v>101.4</v>
+        <v>103.95</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1507,31 +1507,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>50.61</v>
+        <v>53.97</v>
       </c>
       <c r="C31">
-        <v>77.59</v>
+        <v>76.5</v>
       </c>
       <c r="D31">
-        <v>38.44</v>
+        <v>36.84</v>
       </c>
       <c r="E31">
-        <v>9.220000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="F31">
-        <v>50.59</v>
+        <v>60.61</v>
       </c>
       <c r="G31">
-        <v>23.99</v>
+        <v>27.59</v>
       </c>
       <c r="H31">
-        <v>60.4</v>
+        <v>65.63</v>
       </c>
       <c r="I31">
-        <v>26.78</v>
+        <v>28.16</v>
       </c>
       <c r="J31">
-        <v>46.38</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1539,31 +1539,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>98.16</v>
+        <v>99.7</v>
       </c>
       <c r="C32">
-        <v>112.1</v>
+        <v>112.53</v>
       </c>
       <c r="D32">
-        <v>77.89</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="E32">
-        <v>33.01</v>
+        <v>31.63</v>
       </c>
       <c r="F32">
-        <v>72.53</v>
+        <v>72.34</v>
       </c>
       <c r="G32">
-        <v>73</v>
+        <v>72.02</v>
       </c>
       <c r="H32">
-        <v>101.22</v>
+        <v>99.55</v>
       </c>
       <c r="I32">
-        <v>55.28</v>
+        <v>55.47</v>
       </c>
       <c r="J32">
-        <v>102.84</v>
+        <v>103.52</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1571,31 +1571,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>92.20999999999999</v>
+        <v>104.77</v>
       </c>
       <c r="C33">
-        <v>97.17</v>
+        <v>103.94</v>
       </c>
       <c r="D33">
-        <v>71.61</v>
+        <v>79.98</v>
       </c>
       <c r="E33">
-        <v>45.82</v>
+        <v>43.91</v>
       </c>
       <c r="F33">
-        <v>165.22</v>
+        <v>175</v>
       </c>
       <c r="G33">
-        <v>89.66</v>
+        <v>88.89</v>
       </c>
       <c r="H33">
-        <v>99.20999999999999</v>
+        <v>106.17</v>
       </c>
       <c r="I33">
-        <v>35.39</v>
+        <v>39.4</v>
       </c>
       <c r="J33">
-        <v>84.84</v>
+        <v>97.56</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1603,31 +1603,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>97.73</v>
+        <v>96.92</v>
       </c>
       <c r="C34">
-        <v>126.29</v>
+        <v>121.03</v>
       </c>
       <c r="D34">
-        <v>65.48</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="E34">
-        <v>72.95999999999999</v>
+        <v>69.92</v>
       </c>
       <c r="F34">
-        <v>83.48</v>
+        <v>80</v>
       </c>
       <c r="G34">
-        <v>85.27</v>
+        <v>83.87</v>
       </c>
       <c r="H34">
-        <v>102.87</v>
+        <v>105.91</v>
       </c>
       <c r="I34">
-        <v>45.41</v>
+        <v>47</v>
       </c>
       <c r="J34">
-        <v>134.16</v>
+        <v>142.86</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1635,31 +1635,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>94.48</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="C35">
-        <v>124.52</v>
+        <v>119.33</v>
       </c>
       <c r="D35">
-        <v>74.62</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="E35">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F35">
-        <v>13.91</v>
+        <v>13.33</v>
       </c>
       <c r="G35">
-        <v>74.92</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H35">
-        <v>108.04</v>
+        <v>103.54</v>
       </c>
       <c r="I35">
-        <v>75.15000000000001</v>
+        <v>72.02</v>
       </c>
       <c r="J35">
-        <v>116.57</v>
+        <v>111.71</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1667,31 +1667,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>103.68</v>
+        <v>112.13</v>
       </c>
       <c r="C36">
-        <v>94.64</v>
+        <v>98.45</v>
       </c>
       <c r="D36">
-        <v>109.59</v>
+        <v>107.31</v>
       </c>
       <c r="E36">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="F36">
-        <v>77.29000000000001</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="G36">
-        <v>63.24</v>
+        <v>69.7</v>
       </c>
       <c r="H36">
-        <v>97.28</v>
+        <v>93.23</v>
       </c>
       <c r="I36">
-        <v>61.97</v>
+        <v>68.5</v>
       </c>
       <c r="J36">
-        <v>109.05</v>
+        <v>111.71</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1699,31 +1699,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>95.90000000000001</v>
+        <v>91.91</v>
       </c>
       <c r="C37">
-        <v>144.12</v>
+        <v>139.71</v>
       </c>
       <c r="D37">
-        <v>33.48</v>
+        <v>32.09</v>
       </c>
       <c r="E37">
-        <v>28.84</v>
+        <v>27.64</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>90.97</v>
+        <v>82.05</v>
       </c>
       <c r="H37">
-        <v>97.86</v>
+        <v>93.78</v>
       </c>
       <c r="I37">
-        <v>34.77</v>
+        <v>33.32</v>
       </c>
       <c r="J37">
-        <v>104.35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1731,31 +1731,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>129.21</v>
+        <v>123.04</v>
       </c>
       <c r="C38">
-        <v>126.15</v>
+        <v>120.9</v>
       </c>
       <c r="D38">
-        <v>112.8</v>
+        <v>108.1</v>
       </c>
       <c r="E38">
-        <v>37.86</v>
+        <v>36.28</v>
       </c>
       <c r="F38">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G38">
-        <v>74.92</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H38">
-        <v>116.74</v>
+        <v>111.87</v>
       </c>
       <c r="I38">
-        <v>64.31999999999999</v>
+        <v>61.64</v>
       </c>
       <c r="J38">
-        <v>103.23</v>
+        <v>98.92</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1763,31 +1763,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>100.32</v>
+        <v>96.14</v>
       </c>
       <c r="C39">
-        <v>118.03</v>
+        <v>113.11</v>
       </c>
       <c r="D39">
-        <v>86.93000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="E39">
-        <v>5.09</v>
+        <v>4.88</v>
       </c>
       <c r="F39">
-        <v>79.5</v>
+        <v>76.19</v>
       </c>
       <c r="G39">
-        <v>61.54</v>
+        <v>58.97</v>
       </c>
       <c r="H39">
-        <v>81.25</v>
+        <v>77.86</v>
       </c>
       <c r="I39">
-        <v>55.65</v>
+        <v>53.33</v>
       </c>
       <c r="J39">
-        <v>91.77</v>
+        <v>87.94</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1795,31 +1795,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>53.96</v>
+        <v>63.96</v>
       </c>
       <c r="C40">
-        <v>57.97</v>
+        <v>80</v>
       </c>
       <c r="D40">
-        <v>55.34</v>
+        <v>56.76</v>
       </c>
       <c r="E40">
-        <v>20.83</v>
+        <v>19.96</v>
       </c>
       <c r="F40">
-        <v>37.94</v>
+        <v>36.36</v>
       </c>
       <c r="G40">
-        <v>37.1</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>104.66</v>
+        <v>105.47</v>
       </c>
       <c r="I40">
-        <v>64.87</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="J40">
-        <v>77.29000000000001</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1827,31 +1827,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>86.47</v>
+        <v>94.44</v>
       </c>
       <c r="C41">
-        <v>107.72</v>
+        <v>117.34</v>
       </c>
       <c r="D41">
-        <v>91.84</v>
+        <v>104.08</v>
       </c>
       <c r="E41">
-        <v>17.87</v>
+        <v>20.14</v>
       </c>
       <c r="F41">
-        <v>59.03</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="G41">
-        <v>77.67</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="H41">
-        <v>89.18000000000001</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="I41">
-        <v>52.05</v>
+        <v>58.81</v>
       </c>
       <c r="J41">
-        <v>89.15000000000001</v>
+        <v>100.45</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1859,31 +1859,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>115.02</v>
+        <v>127.71</v>
       </c>
       <c r="C42">
-        <v>128.7</v>
+        <v>137.62</v>
       </c>
       <c r="D42">
-        <v>140.59</v>
+        <v>145.69</v>
       </c>
       <c r="E42">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F42">
-        <v>46.38</v>
+        <v>44.44</v>
       </c>
       <c r="G42">
-        <v>110.25</v>
+        <v>105.66</v>
       </c>
       <c r="H42">
-        <v>91.54000000000001</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="I42">
-        <v>37.61</v>
+        <v>52.1</v>
       </c>
       <c r="J42">
-        <v>118.26</v>
+        <v>123.33</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1891,31 +1891,31 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>90.72</v>
+        <v>92.31</v>
       </c>
       <c r="C43">
-        <v>110.86</v>
+        <v>110.5</v>
       </c>
       <c r="D43">
-        <v>104.01</v>
+        <v>102.59</v>
       </c>
       <c r="E43">
-        <v>21.77</v>
+        <v>20.86</v>
       </c>
       <c r="F43">
-        <v>77.29000000000001</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="G43">
-        <v>55.65</v>
+        <v>69.33</v>
       </c>
       <c r="H43">
-        <v>103.56</v>
+        <v>104.18</v>
       </c>
       <c r="I43">
-        <v>45.04</v>
+        <v>45.29</v>
       </c>
       <c r="J43">
-        <v>127.77</v>
+        <v>125.17</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1923,31 +1923,31 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>79.94</v>
+        <v>86.2</v>
       </c>
       <c r="C44">
-        <v>123.22</v>
+        <v>129.27</v>
       </c>
       <c r="D44">
-        <v>82.95</v>
+        <v>107.78</v>
       </c>
       <c r="E44">
-        <v>22.82</v>
+        <v>21.87</v>
       </c>
       <c r="F44">
-        <v>99.38</v>
+        <v>101.59</v>
       </c>
       <c r="G44">
-        <v>62.37</v>
+        <v>59.77</v>
       </c>
       <c r="H44">
-        <v>78.69</v>
+        <v>83</v>
       </c>
       <c r="I44">
-        <v>77.45</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="J44">
-        <v>65</v>
+        <v>79.78</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1955,31 +1955,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>61.32</v>
+        <v>73.66</v>
       </c>
       <c r="C45">
-        <v>64.84</v>
+        <v>84.14</v>
       </c>
       <c r="D45">
-        <v>69.11</v>
+        <v>83.84</v>
       </c>
       <c r="E45">
-        <v>16.91</v>
+        <v>32.41</v>
       </c>
       <c r="F45">
-        <v>12.65</v>
+        <v>48.48</v>
       </c>
       <c r="G45">
-        <v>27.83</v>
+        <v>66.67</v>
       </c>
       <c r="H45">
-        <v>93.69</v>
+        <v>107.1</v>
       </c>
       <c r="I45">
-        <v>41.31</v>
+        <v>43.12</v>
       </c>
       <c r="J45">
-        <v>74.31</v>
+        <v>89.39</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1987,31 +1987,31 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>61</v>
+        <v>68.39</v>
       </c>
       <c r="C46">
-        <v>57.39</v>
+        <v>86.11</v>
       </c>
       <c r="D46">
-        <v>63.6</v>
+        <v>79.25</v>
       </c>
       <c r="E46">
-        <v>9.33</v>
+        <v>8.94</v>
       </c>
       <c r="F46">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G46">
-        <v>107.02</v>
+        <v>107.69</v>
       </c>
       <c r="H46">
-        <v>88.27</v>
+        <v>99.06</v>
       </c>
       <c r="I46">
-        <v>57.77</v>
+        <v>61.52</v>
       </c>
       <c r="J46">
-        <v>90.03</v>
+        <v>113.73</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalesTrend/SalesTrend_CCX.xlsx
+++ b/Data/SalesTrend/SalesTrend_CCX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,141 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CCX</t>
+  </si>
+  <si>
+    <t>CCX10</t>
+  </si>
+  <si>
+    <t>CCX11</t>
+  </si>
+  <si>
+    <t>CCX12</t>
+  </si>
+  <si>
+    <t>CCX13</t>
+  </si>
+  <si>
+    <t>CCX14</t>
+  </si>
+  <si>
+    <t>CCX15</t>
+  </si>
+  <si>
+    <t>CCX16</t>
+  </si>
+  <si>
+    <t>CCX17</t>
+  </si>
+  <si>
+    <t>CCX20</t>
+  </si>
+  <si>
+    <t>CCX21</t>
+  </si>
+  <si>
+    <t>CCX22</t>
+  </si>
+  <si>
+    <t>CCX23</t>
+  </si>
+  <si>
+    <t>CCX24</t>
+  </si>
+  <si>
+    <t>CCX25</t>
+  </si>
+  <si>
+    <t>CCX26</t>
+  </si>
+  <si>
+    <t>CCX27</t>
+  </si>
+  <si>
+    <t>CCX30</t>
+  </si>
+  <si>
+    <t>CCX31</t>
+  </si>
+  <si>
+    <t>CCX32</t>
+  </si>
+  <si>
+    <t>CCX33</t>
+  </si>
+  <si>
+    <t>CCX34</t>
+  </si>
+  <si>
+    <t>CCX35</t>
+  </si>
+  <si>
+    <t>CCX40</t>
+  </si>
+  <si>
+    <t>CCX41</t>
+  </si>
+  <si>
+    <t>CCX42</t>
+  </si>
+  <si>
+    <t>CCX43</t>
+  </si>
+  <si>
+    <t>CCX44</t>
+  </si>
+  <si>
+    <t>CCX45</t>
+  </si>
+  <si>
+    <t>CCX46</t>
+  </si>
+  <si>
+    <t>CCX50</t>
+  </si>
+  <si>
+    <t>CCX51</t>
+  </si>
+  <si>
+    <t>CCX52</t>
+  </si>
+  <si>
+    <t>CCX53</t>
+  </si>
+  <si>
+    <t>CCX54</t>
+  </si>
+  <si>
+    <t>CCX55</t>
+  </si>
+  <si>
+    <t>CCX56</t>
+  </si>
+  <si>
+    <t>CCX57</t>
+  </si>
+  <si>
+    <t>CCX58</t>
+  </si>
+  <si>
+    <t>CCX60</t>
+  </si>
+  <si>
+    <t>CCX61</t>
+  </si>
+  <si>
+    <t>CCX62</t>
+  </si>
+  <si>
+    <t>CCX63</t>
+  </si>
+  <si>
+    <t>CCX64</t>
+  </si>
+  <si>
+    <t>CCX65</t>
   </si>
 </sst>
 </file>
@@ -401,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +574,1446 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>63.55</v>
+      </c>
+      <c r="C2">
+        <v>75.73999999999999</v>
+      </c>
+      <c r="D2">
+        <v>55.87</v>
+      </c>
+      <c r="E2">
+        <v>38.04</v>
+      </c>
+      <c r="F2">
+        <v>70.25</v>
+      </c>
+      <c r="G2">
+        <v>61.67</v>
+      </c>
+      <c r="H2">
+        <v>59.24</v>
+      </c>
+      <c r="I2">
+        <v>32.23</v>
+      </c>
+      <c r="J2">
+        <v>66.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>86.84</v>
+      </c>
+      <c r="C3">
+        <v>83.63</v>
+      </c>
+      <c r="D3">
+        <v>65.62</v>
+      </c>
+      <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>70.78</v>
+      </c>
+      <c r="G3">
+        <v>62.54</v>
+      </c>
+      <c r="H3">
+        <v>65.25</v>
+      </c>
+      <c r="I3">
+        <v>56.47</v>
+      </c>
+      <c r="J3">
+        <v>64.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>118.33</v>
+      </c>
+      <c r="C4">
+        <v>243.29</v>
+      </c>
+      <c r="D4">
+        <v>154.27</v>
+      </c>
+      <c r="E4">
+        <v>476.92</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>199.42</v>
+      </c>
+      <c r="H4">
+        <v>113.69</v>
+      </c>
+      <c r="I4">
+        <v>52.7</v>
+      </c>
+      <c r="J4">
+        <v>91.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>80.16</v>
+      </c>
+      <c r="C5">
+        <v>88.72</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>229.63</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>58.05</v>
+      </c>
+      <c r="I5">
+        <v>12.96</v>
+      </c>
+      <c r="J5">
+        <v>68.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>91.03</v>
+      </c>
+      <c r="C6">
+        <v>133.73</v>
+      </c>
+      <c r="D6">
+        <v>71.12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>73.81</v>
+      </c>
+      <c r="G6">
+        <v>32.98</v>
+      </c>
+      <c r="H6">
+        <v>58.91</v>
+      </c>
+      <c r="I6">
+        <v>55.54</v>
+      </c>
+      <c r="J6">
+        <v>79.48999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>85.73</v>
+      </c>
+      <c r="C7">
+        <v>25.57</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>147.62</v>
+      </c>
+      <c r="G7">
+        <v>20.67</v>
+      </c>
+      <c r="H7">
+        <v>46.8</v>
+      </c>
+      <c r="I7">
+        <v>115.51</v>
+      </c>
+      <c r="J7">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>96.02</v>
+      </c>
+      <c r="C8">
+        <v>75.2</v>
+      </c>
+      <c r="D8">
+        <v>56.55</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>87.94</v>
+      </c>
+      <c r="H8">
+        <v>78.70999999999999</v>
+      </c>
+      <c r="I8">
+        <v>38.09</v>
+      </c>
+      <c r="J8">
+        <v>140.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>74.31999999999999</v>
+      </c>
+      <c r="C9">
+        <v>12.84</v>
+      </c>
+      <c r="D9">
+        <v>46.08</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>68.89</v>
+      </c>
+      <c r="H9">
+        <v>35.23</v>
+      </c>
+      <c r="I9">
+        <v>44.37</v>
+      </c>
+      <c r="J9">
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>51.01</v>
+      </c>
+      <c r="C10">
+        <v>39.83</v>
+      </c>
+      <c r="D10">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>56.65</v>
+      </c>
+      <c r="I10">
+        <v>63.06</v>
+      </c>
+      <c r="J10">
+        <v>-11.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>65.14</v>
+      </c>
+      <c r="C11">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="D11">
+        <v>59.64</v>
+      </c>
+      <c r="E11">
+        <v>40.52</v>
+      </c>
+      <c r="F11">
+        <v>78.62</v>
+      </c>
+      <c r="G11">
+        <v>84.8</v>
+      </c>
+      <c r="H11">
+        <v>77.04000000000001</v>
+      </c>
+      <c r="I11">
+        <v>27.02</v>
+      </c>
+      <c r="J11">
+        <v>77.34999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>46.15</v>
+      </c>
+      <c r="C12">
+        <v>40.23</v>
+      </c>
+      <c r="D12">
+        <v>31.63</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>187.88</v>
+      </c>
+      <c r="G12">
+        <v>166.67</v>
+      </c>
+      <c r="H12">
+        <v>37.27</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>59.96</v>
+      </c>
+      <c r="C13">
+        <v>52.07</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>62</v>
+      </c>
+      <c r="H13">
+        <v>106.34</v>
+      </c>
+      <c r="I13">
+        <v>27.41</v>
+      </c>
+      <c r="J13">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>156.53</v>
+      </c>
+      <c r="C14">
+        <v>222.95</v>
+      </c>
+      <c r="D14">
+        <v>125.47</v>
+      </c>
+      <c r="E14">
+        <v>317.95</v>
+      </c>
+      <c r="F14">
+        <v>73.81</v>
+      </c>
+      <c r="G14">
+        <v>168.71</v>
+      </c>
+      <c r="H14">
+        <v>129.17</v>
+      </c>
+      <c r="I14">
+        <v>111.6</v>
+      </c>
+      <c r="J14">
+        <v>104.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>45.69</v>
+      </c>
+      <c r="C15">
+        <v>108.12</v>
+      </c>
+      <c r="D15">
+        <v>41.44</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>172.22</v>
+      </c>
+      <c r="G15">
+        <v>35.03</v>
+      </c>
+      <c r="H15">
+        <v>61.03</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>64.20999999999999</v>
+      </c>
+      <c r="C16">
+        <v>48.65</v>
+      </c>
+      <c r="D16">
+        <v>60.61</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>107.64</v>
+      </c>
+      <c r="H16">
+        <v>62.3</v>
+      </c>
+      <c r="I16">
+        <v>34.14</v>
+      </c>
+      <c r="J16">
+        <v>91.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>18.05</v>
+      </c>
+      <c r="C17">
+        <v>97.75</v>
+      </c>
+      <c r="D17">
+        <v>70.01000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>68.89</v>
+      </c>
+      <c r="G17">
+        <v>57.41</v>
+      </c>
+      <c r="H17">
+        <v>52.46</v>
+      </c>
+      <c r="I17">
+        <v>35.73</v>
+      </c>
+      <c r="J17">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>41.9</v>
+      </c>
+      <c r="C18">
+        <v>114.09</v>
+      </c>
+      <c r="D18">
+        <v>86.52</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>27.19</v>
+      </c>
+      <c r="H18">
+        <v>53.88</v>
+      </c>
+      <c r="I18">
+        <v>28.74</v>
+      </c>
+      <c r="J18">
+        <v>111.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>40.11</v>
+      </c>
+      <c r="C19">
+        <v>44.07</v>
+      </c>
+      <c r="D19">
+        <v>45.78</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>55.11</v>
+      </c>
+      <c r="G19">
+        <v>54.39</v>
+      </c>
+      <c r="H19">
+        <v>31.25</v>
+      </c>
+      <c r="I19">
+        <v>14.98</v>
+      </c>
+      <c r="J19">
+        <v>41.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>32.59</v>
+      </c>
+      <c r="C20">
+        <v>24.75</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>20.14</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>27.54</v>
+      </c>
+      <c r="C21">
+        <v>46.16</v>
+      </c>
+      <c r="D21">
+        <v>37.71</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>68.89</v>
+      </c>
+      <c r="G21">
+        <v>193.75</v>
+      </c>
+      <c r="H21">
+        <v>33.92</v>
+      </c>
+      <c r="I21">
+        <v>23.95</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>71.5</v>
+      </c>
+      <c r="C22">
+        <v>38.05</v>
+      </c>
+      <c r="D22">
+        <v>107.55</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>103.33</v>
+      </c>
+      <c r="H22">
+        <v>42.7</v>
+      </c>
+      <c r="I22">
+        <v>43.64</v>
+      </c>
+      <c r="J22">
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>23.72</v>
+      </c>
+      <c r="C23">
+        <v>72.03</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>52.99</v>
+      </c>
+      <c r="H23">
+        <v>15.49</v>
+      </c>
+      <c r="I23">
+        <v>12.77</v>
+      </c>
+      <c r="J23">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>46.01</v>
+      </c>
+      <c r="C24">
+        <v>41.48</v>
+      </c>
+      <c r="D24">
+        <v>53.04</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>106.9</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>38.31</v>
+      </c>
+      <c r="I24">
+        <v>-8.630000000000001</v>
+      </c>
+      <c r="J24">
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="C25">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="D25">
+        <v>54.55</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>14.16</v>
+      </c>
+      <c r="G25">
+        <v>39.62</v>
+      </c>
+      <c r="H25">
+        <v>74.84</v>
+      </c>
+      <c r="I25">
+        <v>46.37</v>
+      </c>
+      <c r="J25">
+        <v>79.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>101.45</v>
+      </c>
+      <c r="C26">
+        <v>93.44</v>
+      </c>
+      <c r="D26">
+        <v>70.39</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>103.33</v>
+      </c>
+      <c r="G26">
+        <v>15.42</v>
+      </c>
+      <c r="H26">
+        <v>113.24</v>
+      </c>
+      <c r="I26">
+        <v>58.54</v>
+      </c>
+      <c r="J26">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>93.16</v>
+      </c>
+      <c r="C27">
+        <v>110.98</v>
+      </c>
+      <c r="D27">
+        <v>115.74</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>21.09</v>
+      </c>
+      <c r="H27">
+        <v>61.78</v>
+      </c>
+      <c r="I27">
+        <v>10.72</v>
+      </c>
+      <c r="J27">
+        <v>74.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>44.26</v>
+      </c>
+      <c r="C28">
+        <v>30.45</v>
+      </c>
+      <c r="D28">
+        <v>19.72</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>132.48</v>
+      </c>
+      <c r="H28">
+        <v>30.01</v>
+      </c>
+      <c r="I28">
+        <v>33.99</v>
+      </c>
+      <c r="J28">
+        <v>87.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>73.19</v>
+      </c>
+      <c r="C29">
+        <v>68.89</v>
+      </c>
+      <c r="D29">
+        <v>69.73</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>15.9</v>
+      </c>
+      <c r="H29">
+        <v>127.75</v>
+      </c>
+      <c r="I29">
+        <v>62.52</v>
+      </c>
+      <c r="J29">
+        <v>71.26000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>126.7</v>
+      </c>
+      <c r="C30">
+        <v>89.98</v>
+      </c>
+      <c r="D30">
+        <v>47.11</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>31.31</v>
+      </c>
+      <c r="H30">
+        <v>35.2</v>
+      </c>
+      <c r="I30">
+        <v>29.72</v>
+      </c>
+      <c r="J30">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>46.75</v>
+      </c>
+      <c r="C31">
+        <v>62.9</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>76.54000000000001</v>
+      </c>
+      <c r="H31">
+        <v>78.81</v>
+      </c>
+      <c r="I31">
+        <v>129.3</v>
+      </c>
+      <c r="J31">
+        <v>51.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>52.02</v>
+      </c>
+      <c r="C32">
+        <v>83.27</v>
+      </c>
+      <c r="D32">
+        <v>56.68</v>
+      </c>
+      <c r="E32">
+        <v>79.31</v>
+      </c>
+      <c r="F32">
+        <v>80.37</v>
+      </c>
+      <c r="G32">
+        <v>71.37</v>
+      </c>
+      <c r="H32">
+        <v>48.11</v>
+      </c>
+      <c r="I32">
+        <v>17.48</v>
+      </c>
+      <c r="J32">
+        <v>63.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>14.74</v>
+      </c>
+      <c r="C33">
+        <v>26.23</v>
+      </c>
+      <c r="D33">
+        <v>86.47</v>
+      </c>
+      <c r="E33">
+        <v>55.18</v>
+      </c>
+      <c r="F33">
+        <v>86.11</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>26.76</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>79.48999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>100.09</v>
+      </c>
+      <c r="C34">
+        <v>111.28</v>
+      </c>
+      <c r="D34">
+        <v>160.12</v>
+      </c>
+      <c r="E34">
+        <v>60.19</v>
+      </c>
+      <c r="F34">
+        <v>229.63</v>
+      </c>
+      <c r="G34">
+        <v>59.9</v>
+      </c>
+      <c r="H34">
+        <v>54.9</v>
+      </c>
+      <c r="I34">
+        <v>14.95</v>
+      </c>
+      <c r="J34">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>29.91</v>
+      </c>
+      <c r="C35">
+        <v>100.81</v>
+      </c>
+      <c r="D35">
+        <v>48.83</v>
+      </c>
+      <c r="E35">
+        <v>408.53</v>
+      </c>
+      <c r="F35">
+        <v>295.24</v>
+      </c>
+      <c r="G35">
+        <v>153.09</v>
+      </c>
+      <c r="H35">
+        <v>22.72</v>
+      </c>
+      <c r="I35">
+        <v>26.08</v>
+      </c>
+      <c r="J35">
+        <v>39.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>115.37</v>
+      </c>
+      <c r="C36">
+        <v>194.73</v>
+      </c>
+      <c r="D36">
+        <v>40.33</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>114.81</v>
+      </c>
+      <c r="G36">
+        <v>140.91</v>
+      </c>
+      <c r="H36">
+        <v>125.43</v>
+      </c>
+      <c r="I36">
+        <v>37.34</v>
+      </c>
+      <c r="J36">
+        <v>243.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>51.45</v>
+      </c>
+      <c r="C37">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>73.81</v>
+      </c>
+      <c r="H37">
+        <v>55.08</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>88.73999999999999</v>
+      </c>
+      <c r="C39">
+        <v>131.09</v>
+      </c>
+      <c r="D39">
+        <v>22.12</v>
+      </c>
+      <c r="E39">
+        <v>170.55</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>112.73</v>
+      </c>
+      <c r="H39">
+        <v>107.25</v>
+      </c>
+      <c r="I39">
+        <v>37.31</v>
+      </c>
+      <c r="J39">
+        <v>103.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>48.82</v>
+      </c>
+      <c r="C40">
+        <v>51.1</v>
+      </c>
+      <c r="D40">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>51.67</v>
+      </c>
+      <c r="H40">
+        <v>37.42</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>40.33</v>
+      </c>
+      <c r="C41">
+        <v>49.4</v>
+      </c>
+      <c r="D41">
+        <v>46.02</v>
+      </c>
+      <c r="E41">
+        <v>30.44</v>
+      </c>
+      <c r="F41">
+        <v>136.48</v>
+      </c>
+      <c r="G41">
+        <v>45.17</v>
+      </c>
+      <c r="H41">
+        <v>41.23</v>
+      </c>
+      <c r="I41">
+        <v>20.65</v>
+      </c>
+      <c r="J41">
+        <v>63.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>34.3</v>
+      </c>
+      <c r="C42">
+        <v>78.02</v>
+      </c>
+      <c r="D42">
+        <v>72.87</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>114.81</v>
+      </c>
+      <c r="G42">
+        <v>30.39</v>
+      </c>
+      <c r="H42">
+        <v>49.56</v>
+      </c>
+      <c r="I42">
+        <v>14.06</v>
+      </c>
+      <c r="J42">
+        <v>47.51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>56.48</v>
+      </c>
+      <c r="C43">
+        <v>12.33</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>68.13</v>
+      </c>
+      <c r="F43">
+        <v>344.44</v>
+      </c>
+      <c r="G43">
+        <v>110.71</v>
+      </c>
+      <c r="H43">
+        <v>37.84</v>
+      </c>
+      <c r="I43">
+        <v>26.93</v>
+      </c>
+      <c r="J43">
+        <v>54.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>50.15</v>
+      </c>
+      <c r="C44">
+        <v>47.45</v>
+      </c>
+      <c r="D44">
+        <v>75.87</v>
+      </c>
+      <c r="E44">
+        <v>63.92</v>
+      </c>
+      <c r="F44">
+        <v>163.16</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>45.57</v>
+      </c>
+      <c r="I44">
+        <v>27.89</v>
+      </c>
+      <c r="J44">
+        <v>89.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>35.3</v>
+      </c>
+      <c r="C45">
+        <v>60.41</v>
+      </c>
+      <c r="D45">
+        <v>33.62</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>34.44</v>
+      </c>
+      <c r="H45">
+        <v>30.51</v>
+      </c>
+      <c r="I45">
+        <v>29.25</v>
+      </c>
+      <c r="J45">
+        <v>67.09999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>6.75</v>
+      </c>
+      <c r="C46">
+        <v>41.17</v>
+      </c>
+      <c r="D46">
+        <v>37.49</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>73.81</v>
+      </c>
+      <c r="H46">
+        <v>25.33</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>28.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
